--- a/output/tables/effect_summary.xlsx
+++ b/output/tables/effect_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claytonlamb/Dropbox/Documents/University/Work/RecreationMonitoring/MtFernie/output/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claytonlamb/Dropbox/Documents/University/Work/RecreationMonitoring/MtFernie_RecreationEcology/output/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A8B73-1FE9-DD45-A55C-6298A6081AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B8B0C1-84F6-9F4E-8CCE-5840CB3AAB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34600" yWindow="780" windowWidth="27240" windowHeight="16440" xr2:uid="{4816738A-32BF-524C-B0BE-233B47BCF1B9}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,8 +820,8 @@
       <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>10</v>
+      <c r="C7" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>8</v>
